--- a/at.tb_gruber.designer.sampledata/Stundenliste.xlsx
+++ b/at.tb_gruber.designer.sampledata/Stundenliste.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Development\tb_gruber\git\tbg_designer\at.tb_gruber.designer.sampledata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{40EA861A-2CD5-40B2-9A56-15229BD34BE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1DB4FC-78AF-4799-9D02-F26B3AEDDAEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4DD70F0-9B5C-4FBE-BC53-3C039207D1CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F4DD70F0-9B5C-4FBE-BC53-3C039207D1CC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -404,7 +404,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -537,18 +537,26 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>44961</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <f>SUM(B2:B20)</f>
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D21">
         <f>B21*40</f>
-        <v>1400</v>
+        <v>1440</v>
       </c>
       <c r="E21">
         <f>D21*1.2</f>
-        <v>1680</v>
+        <v>1728</v>
       </c>
     </row>
   </sheetData>
